--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2402810.91952807</v>
+        <v>2400086.354203918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11171296.24800151</v>
+        <v>11171296.24800152</v>
       </c>
     </row>
     <row r="9">
@@ -1373,58 +1373,58 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>35.70034586896595</v>
+      </c>
+      <c r="S11" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="U11" t="n">
         <v>40.53172782580149</v>
-      </c>
-      <c r="I11" t="n">
-        <v>35.70034586896595</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,47 +1458,47 @@
         <v>40.53172782580149</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>35.70034586896595</v>
+      </c>
+      <c r="I12" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>35.70034586896595</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.70034586896595</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>23.4215532576279</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>40.53172782580149</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>66.35392492301084</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="G14" t="n">
-        <v>75.33370222866807</v>
+        <v>66.35392492301082</v>
       </c>
       <c r="H14" t="n">
         <v>75.33370222866807</v>
       </c>
       <c r="I14" t="n">
-        <v>75.33370222866807</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>66.35392492301082</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.35392492301084</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>75.33370222866807</v>
-      </c>
-      <c r="U15" t="n">
-        <v>75.33370222866807</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>75.33370222866807</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.33370222866807</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>75.33370222866807</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="J16" t="n">
-        <v>62.12133548423995</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.232589438770864</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.33370222866807</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>66.35392492301084</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>92.03176782922438</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>104.4865665636063</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>92.03176782922435</v>
       </c>
       <c r="U17" t="n">
         <v>104.4865665636063</v>
@@ -1904,7 +1904,7 @@
         <v>104.4865665636063</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>104.4865665636063</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>92.03176782922438</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.03176782922435</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>104.4865665636063</v>
       </c>
       <c r="U18" t="n">
         <v>104.4865665636063</v>
@@ -1983,7 +1983,7 @@
         <v>104.4865665636063</v>
       </c>
       <c r="W18" t="n">
-        <v>104.4865665636063</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>104.4865665636063</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>62.12133548423995</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>83.41749060061419</v>
+        <v>21.29615511637423</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.4865665636063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>93.6541123347252</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.6312733087169</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.85772515914092</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>141.4706543558829</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>116.2072209322059</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>108.2132467439275</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>201.5627425169924</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>220.4571385284868</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>136.008976466195</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.75868031271659</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>54.92419861926156</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>196.7077447958487</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>156.3816472616318</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,23 +2315,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>268.7747068942237</v>
+      </c>
+      <c r="E23" t="n">
+        <v>268.7747068942237</v>
+      </c>
+      <c r="F23" t="n">
+        <v>268.7747068942237</v>
+      </c>
+      <c r="G23" t="n">
         <v>236.7367618324322</v>
       </c>
-      <c r="C23" t="n">
-        <v>268.7747068942237</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>268.7747068942237</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>268.7747068942237</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>134.4537254856305</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>109.1902920619535</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>102.4251307534442</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>106.8144388906987</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>99.08874366052541</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>73.98067073381124</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>61.90306064995791</v>
       </c>
       <c r="S24" t="n">
-        <v>117.9600837389107</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>161.9099551921364</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>187.6866085782896</v>
       </c>
       <c r="V24" t="n">
-        <v>194.54581364674</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>213.4402096582344</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>167.5182117007922</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>139.0386178744843</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.761824534287</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>85.38615080832729</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>248.2682248339058</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>8.853933233461802</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>10.0409487994802</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>111.6143444384645</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>170.7652960835601</v>
+        <v>51.8956857709862</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>184.8410760614461</v>
       </c>
       <c r="U26" t="n">
-        <v>213.0908794051513</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>268.7747068942237</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>268.7747068942237</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128.2784101471821</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.3903069527157</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>106.8144388906987</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>99.08874366052541</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>51.14185934872985</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>133.4283976011526</v>
+        <v>126.8614011380971</v>
       </c>
       <c r="T27" t="n">
         <v>161.9099551921364</v>
       </c>
       <c r="U27" t="n">
-        <v>187.6866085782896</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>47.78513503666269</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.4402096582344</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>167.5182117007922</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>167.4279222746191</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.3089119781031</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>108.1791891438839</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>107.166274520246</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>248.0642558538057</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>85.59011978842744</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>268.7747068942237</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>65.75349026287424</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="G29" t="n">
-        <v>268.7747068942237</v>
+        <v>51.09293001317835</v>
       </c>
       <c r="H29" t="n">
         <v>233.0705411795549</v>
       </c>
       <c r="I29" t="n">
-        <v>104.0716286341937</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>102.6158086500331</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>221.3479975339226</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.5505235914338</v>
+        <v>73.42771924572504</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>40.02970171035692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>49.04621399104603</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>117.61233710076</v>
       </c>
       <c r="T31" t="n">
-        <v>121.5413284920692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>179.9147684202786</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.7333823876157</v>
+        <v>75.31863639068449</v>
       </c>
       <c r="W31" t="n">
         <v>180.1187374003787</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>119.3053944528249</v>
       </c>
       <c r="Y31" t="n">
         <v>112.1803924158825</v>
@@ -3032,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>248.2787806844707</v>
+        <v>3.666220652877398</v>
       </c>
       <c r="E32" t="n">
         <v>268.7747068942237</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="H32" t="n">
-        <v>61.82268962128545</v>
+        <v>233.0705411795549</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>221.3479975339226</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>242.8367077812007</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>60.12892271365506</v>
       </c>
       <c r="C33" t="n">
-        <v>66.30423805210346</v>
+        <v>66.30423805210393</v>
       </c>
       <c r="D33" t="n">
         <v>41.04080462842647</v>
@@ -3174,7 +3174,7 @@
         <v>99.36872426726519</v>
       </c>
       <c r="Y33" t="n">
-        <v>99.27843484109256</v>
+        <v>99.27843484109208</v>
       </c>
     </row>
     <row r="34">
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>60.84256016241555</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.21121208200007</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>39.01678708671896</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>55.82291157122729</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.046213991046</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.11857890655666</v>
+        <v>70.8891304409572</v>
       </c>
       <c r="S34" t="n">
-        <v>117.61233710076</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>121.5413284920692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>179.9147684202786</v>
@@ -3247,13 +3247,13 @@
         <v>145.7333823876157</v>
       </c>
       <c r="W34" t="n">
-        <v>180.1187374003787</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>11.38177414951689</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>112.1803924158825</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>228.2429790684222</v>
       </c>
       <c r="F35" t="n">
         <v>228.2429790684222</v>
@@ -3281,7 +3281,7 @@
         <v>228.2429790684222</v>
       </c>
       <c r="H35" t="n">
-        <v>228.2429790684222</v>
+        <v>201.0364159634663</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.34482733554721</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>116.6915886279191</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3345,19 +3345,19 @@
         <v>60.12892271365506</v>
       </c>
       <c r="C36" t="n">
-        <v>66.30423805210346</v>
+        <v>14.11832684710977</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>41.04080462842647</v>
       </c>
       <c r="E36" t="n">
         <v>51.24081951918866</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>38.6649514571716</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>30.93925622699835</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>24.45957643413619</v>
+        <v>65.27891016762554</v>
       </c>
       <c r="T36" t="n">
         <v>93.76046775860932</v>
@@ -3411,7 +3411,7 @@
         <v>99.36872426726519</v>
       </c>
       <c r="Y36" t="n">
-        <v>99.27843484109208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>73.42771924572502</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>60.84256016241555</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.21121208200007</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>70.8891304409572</v>
       </c>
       <c r="S37" t="n">
-        <v>88.36386653898778</v>
+        <v>117.61233710076</v>
       </c>
       <c r="T37" t="n">
         <v>121.5413284920692</v>
       </c>
       <c r="U37" t="n">
-        <v>179.9147684202786</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>145.7333823876157</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>49.02905831502431</v>
       </c>
       <c r="X37" t="n">
         <v>119.3053944528249</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>193.4410046655556</v>
       </c>
       <c r="C38" t="n">
         <v>193.4410046655556</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>193.4410046655556</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,58 +3518,58 @@
         <v>193.4410046655556</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>170.3828369094213</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31.6631263696504</v>
+        <v>67.14585158390746</v>
       </c>
       <c r="C39" t="n">
-        <v>73.32116692235586</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>58.25774838944106</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>12.84811217053658</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>72.29583903787794</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>100.7773966288617</v>
@@ -3639,16 +3639,16 @@
         <v>126.5540500150149</v>
       </c>
       <c r="V39" t="n">
-        <v>133.4132550834654</v>
+        <v>126.4293878858492</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>152.3076510949597</v>
       </c>
       <c r="X39" t="n">
         <v>106.3856531375176</v>
       </c>
       <c r="Y39" t="n">
-        <v>106.2953637113445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,16 +3715,16 @@
         <v>128.5582573623216</v>
       </c>
       <c r="U40" t="n">
-        <v>186.931697290531</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>152.7503112578681</v>
       </c>
       <c r="W40" t="n">
-        <v>41.24520562884102</v>
+        <v>101.8545795962948</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>126.3223233230773</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,64 +3746,64 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>11.00577729049147</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>133.6992167127163</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>164.2881403306174</v>
       </c>
-      <c r="G41" t="n">
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>164.2881403306174</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>121.0792567189908</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>23.62573728421691</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>38.99065863769577</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>31.08941392030076</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
         <v>116.2860629258893</v>
@@ -3904,22 +3904,22 @@
         <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9974198867134668</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>72.8305396560245</v>
+        <v>70.87712339412087</v>
       </c>
       <c r="I43" t="n">
         <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>164.2881403306174</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.76041801656467</v>
       </c>
       <c r="C44" t="n">
-        <v>24.45137618899015</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>27.76041801656467</v>
       </c>
       <c r="T44" t="n">
         <v>27.76041801656467</v>
       </c>
       <c r="U44" t="n">
-        <v>27.76041801656467</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.76041801656467</v>
+        <v>24.45137618899015</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>24.45137618899015</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>27.76041801656467</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,13 +4113,13 @@
         <v>27.76041801656467</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.76041801656467</v>
       </c>
       <c r="W45" t="n">
         <v>27.76041801656467</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>24.45137618899015</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.55014423745566</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>27.76041801656467</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>27.76041801656467</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.76041801656467</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>22.27158497256217</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.76041801656467</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="C11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="D11" t="n">
-        <v>121.1857720852247</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="E11" t="n">
-        <v>121.1857720852247</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="F11" t="n">
-        <v>80.24463286724335</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="G11" t="n">
-        <v>80.24463286724335</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="H11" t="n">
-        <v>39.30349364926205</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="I11" t="n">
         <v>3.242538226064119</v>
@@ -5042,19 +5042,19 @@
         <v>3.242538226064119</v>
       </c>
       <c r="K11" t="n">
+        <v>3.242538226064119</v>
+      </c>
+      <c r="L11" t="n">
         <v>43.36894877360759</v>
       </c>
-      <c r="L11" t="n">
-        <v>83.49535932115106</v>
-      </c>
       <c r="M11" t="n">
-        <v>122.0005007556625</v>
+        <v>81.87409020811901</v>
       </c>
       <c r="N11" t="n">
         <v>122.0005007556625</v>
       </c>
       <c r="O11" t="n">
-        <v>122.0005007556625</v>
+        <v>162.126911303206</v>
       </c>
       <c r="P11" t="n">
         <v>162.126911303206</v>
@@ -5063,28 +5063,28 @@
         <v>162.126911303206</v>
       </c>
       <c r="R11" t="n">
-        <v>162.126911303206</v>
+        <v>126.065955880008</v>
       </c>
       <c r="S11" t="n">
-        <v>162.126911303206</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="T11" t="n">
-        <v>162.126911303206</v>
+        <v>44.18367744404542</v>
       </c>
       <c r="U11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="V11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="W11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="X11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.126911303206</v>
+        <v>3.242538226064119</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="C12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="D12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="E12" t="n">
-        <v>85.12481666202672</v>
+        <v>80.24463286724335</v>
       </c>
       <c r="F12" t="n">
+        <v>80.24463286724335</v>
+      </c>
+      <c r="G12" t="n">
+        <v>80.24463286724335</v>
+      </c>
+      <c r="H12" t="n">
         <v>44.18367744404542</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.242538226064119</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.242538226064119</v>
       </c>
       <c r="I12" t="n">
         <v>3.242538226064119</v>
@@ -5121,16 +5121,16 @@
         <v>3.242538226064119</v>
       </c>
       <c r="K12" t="n">
-        <v>41.74767966057554</v>
+        <v>43.36894877360759</v>
       </c>
       <c r="L12" t="n">
-        <v>41.74767966057554</v>
+        <v>81.87409020811901</v>
       </c>
       <c r="M12" t="n">
-        <v>41.74767966057554</v>
+        <v>81.87409020811901</v>
       </c>
       <c r="N12" t="n">
-        <v>41.74767966057554</v>
+        <v>81.87409020811901</v>
       </c>
       <c r="O12" t="n">
         <v>81.87409020811901</v>
@@ -5145,25 +5145,25 @@
         <v>162.126911303206</v>
       </c>
       <c r="S12" t="n">
-        <v>162.126911303206</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="T12" t="n">
-        <v>162.126911303206</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="U12" t="n">
-        <v>162.126911303206</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="V12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="W12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="X12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="Y12" t="n">
-        <v>126.065955880008</v>
+        <v>121.1857720852247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="C13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="D13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="E13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="F13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="G13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="H13" t="n">
-        <v>44.18367744404542</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="I13" t="n">
-        <v>3.242538226064119</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="J13" t="n">
-        <v>3.242538226064119</v>
+        <v>15.6453590455975</v>
       </c>
       <c r="K13" t="n">
         <v>3.242538226064119</v>
@@ -5221,28 +5221,28 @@
         <v>121.1857720852247</v>
       </c>
       <c r="R13" t="n">
-        <v>121.1857720852247</v>
+        <v>80.24463286724335</v>
       </c>
       <c r="S13" t="n">
-        <v>121.1857720852247</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="T13" t="n">
-        <v>121.1857720852247</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="U13" t="n">
-        <v>80.24463286724335</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="V13" t="n">
-        <v>80.24463286724335</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="W13" t="n">
-        <v>80.24463286724335</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="X13" t="n">
-        <v>80.24463286724335</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.24463286724335</v>
+        <v>39.30349364926205</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.3348089146723</v>
+        <v>225.240160198846</v>
       </c>
       <c r="C14" t="n">
-        <v>301.3348089146723</v>
+        <v>225.240160198846</v>
       </c>
       <c r="D14" t="n">
-        <v>301.3348089146723</v>
+        <v>225.240160198846</v>
       </c>
       <c r="E14" t="n">
-        <v>301.3348089146723</v>
+        <v>225.240160198846</v>
       </c>
       <c r="F14" t="n">
-        <v>234.3106423257724</v>
+        <v>149.1455114830196</v>
       </c>
       <c r="G14" t="n">
-        <v>158.2159936099461</v>
+        <v>82.12134489411979</v>
       </c>
       <c r="H14" t="n">
-        <v>82.12134489411979</v>
+        <v>6.026696178293446</v>
       </c>
       <c r="I14" t="n">
         <v>6.026696178293446</v>
@@ -5279,16 +5279,16 @@
         <v>6.026696178293446</v>
       </c>
       <c r="K14" t="n">
-        <v>6.026696178293446</v>
+        <v>77.59371329552816</v>
       </c>
       <c r="L14" t="n">
-        <v>6.026696178293446</v>
+        <v>152.1740785019095</v>
       </c>
       <c r="M14" t="n">
-        <v>77.59371329552816</v>
+        <v>226.7544437082909</v>
       </c>
       <c r="N14" t="n">
-        <v>152.1740785019095</v>
+        <v>226.7544437082909</v>
       </c>
       <c r="O14" t="n">
         <v>226.7544437082909</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.026696178293446</v>
+        <v>225.240160198846</v>
       </c>
       <c r="C15" t="n">
-        <v>6.026696178293446</v>
+        <v>225.240160198846</v>
       </c>
       <c r="D15" t="n">
-        <v>6.026696178293446</v>
+        <v>225.240160198846</v>
       </c>
       <c r="E15" t="n">
-        <v>6.026696178293446</v>
+        <v>149.1455114830196</v>
       </c>
       <c r="F15" t="n">
-        <v>6.026696178293446</v>
+        <v>82.12134489411979</v>
       </c>
       <c r="G15" t="n">
         <v>6.026696178293446</v>
@@ -5358,22 +5358,22 @@
         <v>6.026696178293446</v>
       </c>
       <c r="K15" t="n">
-        <v>80.60706138467484</v>
+        <v>6.026696178293446</v>
       </c>
       <c r="L15" t="n">
-        <v>155.1874265910562</v>
+        <v>6.026696178293446</v>
       </c>
       <c r="M15" t="n">
-        <v>226.7544437082909</v>
+        <v>8.19915478219886</v>
       </c>
       <c r="N15" t="n">
-        <v>226.7544437082909</v>
+        <v>82.77951998858025</v>
       </c>
       <c r="O15" t="n">
-        <v>226.7544437082909</v>
+        <v>157.3598851949616</v>
       </c>
       <c r="P15" t="n">
-        <v>301.3348089146723</v>
+        <v>231.940250401343</v>
       </c>
       <c r="Q15" t="n">
         <v>301.3348089146723</v>
@@ -5382,25 +5382,25 @@
         <v>301.3348089146723</v>
       </c>
       <c r="S15" t="n">
-        <v>234.3106423257724</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="T15" t="n">
-        <v>158.2159936099461</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="U15" t="n">
-        <v>82.12134489411979</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="V15" t="n">
-        <v>82.12134489411979</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="W15" t="n">
-        <v>6.026696178293446</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="X15" t="n">
-        <v>6.026696178293446</v>
+        <v>225.240160198846</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.026696178293446</v>
+        <v>225.240160198846</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="C16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="D16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="E16" t="n">
-        <v>144.8701686155743</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="F16" t="n">
-        <v>144.8701686155743</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="G16" t="n">
-        <v>68.77551989974795</v>
+        <v>158.2159936099461</v>
       </c>
       <c r="H16" t="n">
-        <v>68.77551989974795</v>
+        <v>82.12134489411979</v>
       </c>
       <c r="I16" t="n">
-        <v>68.77551989974795</v>
+        <v>6.026696178293446</v>
       </c>
       <c r="J16" t="n">
         <v>6.026696178293446</v>
@@ -5455,31 +5455,31 @@
         <v>301.3348089146723</v>
       </c>
       <c r="Q16" t="n">
-        <v>297.059466047227</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="R16" t="n">
-        <v>297.059466047227</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="S16" t="n">
-        <v>220.9648173314006</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.9648173314006</v>
+        <v>301.3348089146723</v>
       </c>
       <c r="U16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="V16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="W16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="X16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.9648173314006</v>
+        <v>234.3106423257724</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206.8622933986549</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="C17" t="n">
-        <v>206.8622933986549</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="D17" t="n">
-        <v>206.8622933986549</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="E17" t="n">
-        <v>113.9009117529737</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="F17" t="n">
-        <v>113.9009117529737</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="G17" t="n">
         <v>8.358925325088503</v>
@@ -5519,10 +5519,10 @@
         <v>111.3739312360109</v>
       </c>
       <c r="L17" t="n">
+        <v>111.3739312360109</v>
+      </c>
+      <c r="M17" t="n">
         <v>214.8156321339811</v>
-      </c>
-      <c r="M17" t="n">
-        <v>224.8445100644039</v>
       </c>
       <c r="N17" t="n">
         <v>224.8445100644039</v>
@@ -5543,22 +5543,22 @@
         <v>417.9462662544252</v>
       </c>
       <c r="T17" t="n">
-        <v>417.9462662544252</v>
+        <v>324.984884608744</v>
       </c>
       <c r="U17" t="n">
-        <v>312.40427982654</v>
+        <v>219.4428981808588</v>
       </c>
       <c r="V17" t="n">
-        <v>206.8622933986549</v>
+        <v>113.9009117529737</v>
       </c>
       <c r="W17" t="n">
-        <v>206.8622933986549</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="X17" t="n">
-        <v>206.8622933986549</v>
+        <v>8.358925325088503</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.8622933986549</v>
+        <v>8.358925325088503</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.358925325088503</v>
+        <v>101.3203069707697</v>
       </c>
       <c r="C18" t="n">
-        <v>8.358925325088503</v>
+        <v>101.3203069707697</v>
       </c>
       <c r="D18" t="n">
-        <v>8.358925325088503</v>
+        <v>101.3203069707697</v>
       </c>
       <c r="E18" t="n">
         <v>8.358925325088503</v>
@@ -5598,13 +5598,13 @@
         <v>111.8006262230587</v>
       </c>
       <c r="L18" t="n">
-        <v>211.0628644584847</v>
+        <v>111.8006262230587</v>
       </c>
       <c r="M18" t="n">
-        <v>211.0628644584847</v>
+        <v>111.8006262230587</v>
       </c>
       <c r="N18" t="n">
-        <v>211.0628644584847</v>
+        <v>215.2423271210289</v>
       </c>
       <c r="O18" t="n">
         <v>314.5045653564549</v>
@@ -5619,25 +5619,25 @@
         <v>417.9462662544252</v>
       </c>
       <c r="S18" t="n">
-        <v>324.984884608744</v>
+        <v>417.9462662544252</v>
       </c>
       <c r="T18" t="n">
-        <v>324.984884608744</v>
+        <v>312.40427982654</v>
       </c>
       <c r="U18" t="n">
-        <v>219.4428981808588</v>
+        <v>206.8622933986549</v>
       </c>
       <c r="V18" t="n">
-        <v>113.9009117529737</v>
+        <v>101.3203069707697</v>
       </c>
       <c r="W18" t="n">
-        <v>8.358925325088503</v>
+        <v>101.3203069707697</v>
       </c>
       <c r="X18" t="n">
-        <v>8.358925325088503</v>
+        <v>101.3203069707697</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.358925325088503</v>
+        <v>101.3203069707697</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="C19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="D19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="E19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="F19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="G19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="H19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="I19" t="n">
-        <v>8.358925325088503</v>
+        <v>71.10774904654301</v>
       </c>
       <c r="J19" t="n">
         <v>8.358925325088503</v>
@@ -5707,16 +5707,16 @@
         <v>198.1610032687456</v>
       </c>
       <c r="V19" t="n">
-        <v>113.9009117529737</v>
+        <v>176.6497354744282</v>
       </c>
       <c r="W19" t="n">
-        <v>113.9009117529737</v>
+        <v>176.6497354744282</v>
       </c>
       <c r="X19" t="n">
-        <v>113.9009117529737</v>
+        <v>176.6497354744282</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.358925325088503</v>
+        <v>176.6497354744282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>113.8812565796321</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>113.8812565796321</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>113.8812565796321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>113.8812565796321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>844.2275865119323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>844.2275865119323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>844.2275865119323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>844.2275865119323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>844.2275865119323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>600.7788098678323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3300332237322</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>113.8812565796321</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>162.1807939747409</v>
+        <v>279.5618252193934</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.6621743548652</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>854.7508456682853</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>854.7508456682853</v>
       </c>
       <c r="V21" t="n">
-        <v>760.4584256954923</v>
+        <v>854.7508456682853</v>
       </c>
       <c r="W21" t="n">
-        <v>537.7744473838895</v>
+        <v>632.0668673566825</v>
       </c>
       <c r="X21" t="n">
-        <v>361.4763255949555</v>
+        <v>455.7687455677485</v>
       </c>
       <c r="Y21" t="n">
-        <v>185.2694052466005</v>
+        <v>279.5618252193934</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.6639476215208</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="J22" t="n">
         <v>19.28114311021272</v>
@@ -5929,31 +5929,31 @@
         <v>314.625207481755</v>
       </c>
       <c r="Q22" t="n">
-        <v>314.625207481755</v>
+        <v>259.1462189774504</v>
       </c>
       <c r="R22" t="n">
-        <v>314.625207481755</v>
+        <v>259.1462189774504</v>
       </c>
       <c r="S22" t="n">
-        <v>314.625207481755</v>
+        <v>259.1462189774504</v>
       </c>
       <c r="T22" t="n">
-        <v>314.625207481755</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="U22" t="n">
-        <v>314.625207481755</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="V22" t="n">
-        <v>314.625207481755</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="W22" t="n">
-        <v>156.6639476215208</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="X22" t="n">
-        <v>156.6639476215208</v>
+        <v>60.45152726447191</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.6639476215208</v>
+        <v>60.45152726447191</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.9915794749962</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="C23" t="n">
-        <v>21.5019765515379</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="D23" t="n">
-        <v>21.5019765515379</v>
+        <v>803.6092246534365</v>
       </c>
       <c r="E23" t="n">
-        <v>21.5019765515379</v>
+        <v>532.1196217299782</v>
       </c>
       <c r="F23" t="n">
-        <v>21.5019765515379</v>
+        <v>260.63001880652</v>
       </c>
       <c r="G23" t="n">
         <v>21.5019765515379</v>
@@ -5996,16 +5996,16 @@
         <v>330.6352633537108</v>
       </c>
       <c r="M23" t="n">
-        <v>547.6108906166149</v>
+        <v>564.535640622039</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3376385915126</v>
+        <v>770.3901628292783</v>
       </c>
       <c r="O23" t="n">
-        <v>978.404814501819</v>
+        <v>919.5851129719264</v>
       </c>
       <c r="P23" t="n">
-        <v>1068.06486979387</v>
+        <v>1047.117394031636</v>
       </c>
       <c r="Q23" t="n">
         <v>1075.098827576895</v>
@@ -6026,13 +6026,13 @@
         <v>1075.098827576895</v>
       </c>
       <c r="W23" t="n">
-        <v>803.6092246534365</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="X23" t="n">
-        <v>532.1196217299782</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="Y23" t="n">
-        <v>532.1196217299782</v>
+        <v>1075.098827576895</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.5019765515379</v>
+        <v>653.7777357293799</v>
       </c>
       <c r="C24" t="n">
-        <v>21.5019765515379</v>
+        <v>517.9658918045005</v>
       </c>
       <c r="D24" t="n">
-        <v>21.5019765515379</v>
+        <v>407.6726674994969</v>
       </c>
       <c r="E24" t="n">
-        <v>21.5019765515379</v>
+        <v>304.212939465715</v>
       </c>
       <c r="F24" t="n">
-        <v>21.5019765515379</v>
+        <v>196.3195668488476</v>
       </c>
       <c r="G24" t="n">
-        <v>21.5019765515379</v>
+        <v>96.22992678771087</v>
       </c>
       <c r="H24" t="n">
         <v>21.5019765515379</v>
@@ -6069,16 +6069,16 @@
         <v>21.5019765515379</v>
       </c>
       <c r="K24" t="n">
-        <v>60.92376593130257</v>
+        <v>78.25731167262165</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8868717996517</v>
+        <v>308.2204175409708</v>
       </c>
       <c r="M24" t="n">
-        <v>556.9738316249332</v>
+        <v>574.3073773662522</v>
       </c>
       <c r="N24" t="n">
-        <v>823.0607914502145</v>
+        <v>574.3073773662522</v>
       </c>
       <c r="O24" t="n">
         <v>823.0607914502145</v>
@@ -6090,28 +6090,28 @@
         <v>1075.098827576895</v>
       </c>
       <c r="R24" t="n">
-        <v>1075.098827576895</v>
+        <v>1012.570483486028</v>
       </c>
       <c r="S24" t="n">
-        <v>955.9472278406214</v>
+        <v>1012.570483486028</v>
       </c>
       <c r="T24" t="n">
-        <v>792.4018185556351</v>
+        <v>1012.570483486028</v>
       </c>
       <c r="U24" t="n">
-        <v>602.8193856482719</v>
+        <v>822.988050578665</v>
       </c>
       <c r="V24" t="n">
-        <v>406.3084627727769</v>
+        <v>822.988050578665</v>
       </c>
       <c r="W24" t="n">
-        <v>190.712291400823</v>
+        <v>822.988050578665</v>
       </c>
       <c r="X24" t="n">
-        <v>21.5019765515379</v>
+        <v>653.7777357293799</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.5019765515379</v>
+        <v>653.7777357293799</v>
       </c>
     </row>
     <row r="25">
@@ -6169,22 +6169,22 @@
         <v>358.5265984123794</v>
       </c>
       <c r="R25" t="n">
-        <v>358.5265984123794</v>
+        <v>218.0835500543145</v>
       </c>
       <c r="S25" t="n">
-        <v>358.5265984123794</v>
+        <v>30.44534345402457</v>
       </c>
       <c r="T25" t="n">
-        <v>358.5265984123794</v>
+        <v>30.44534345402457</v>
       </c>
       <c r="U25" t="n">
-        <v>358.5265984123794</v>
+        <v>30.44534345402457</v>
       </c>
       <c r="V25" t="n">
-        <v>272.2779612322508</v>
+        <v>30.44534345402457</v>
       </c>
       <c r="W25" t="n">
-        <v>21.5019765515379</v>
+        <v>30.44534345402457</v>
       </c>
       <c r="X25" t="n">
         <v>21.5019765515379</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.64434907626537</v>
+        <v>564.4811823984544</v>
       </c>
       <c r="C26" t="n">
-        <v>31.64434907626537</v>
+        <v>564.4811823984544</v>
       </c>
       <c r="D26" t="n">
-        <v>31.64434907626537</v>
+        <v>292.9915794749962</v>
       </c>
       <c r="E26" t="n">
-        <v>31.64434907626537</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="F26" t="n">
-        <v>31.64434907626537</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="G26" t="n">
-        <v>31.64434907626537</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="H26" t="n">
-        <v>31.64434907626537</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="I26" t="n">
         <v>21.5019765515379</v>
@@ -6227,19 +6227,19 @@
         <v>47.54440585812972</v>
       </c>
       <c r="K26" t="n">
-        <v>188.4316375367104</v>
+        <v>150.5594117690521</v>
       </c>
       <c r="L26" t="n">
-        <v>385.4322391267932</v>
+        <v>330.6352633537107</v>
       </c>
       <c r="M26" t="n">
-        <v>602.4078663896973</v>
+        <v>547.6108906166148</v>
       </c>
       <c r="N26" t="n">
-        <v>808.2623885969367</v>
+        <v>791.3376385915126</v>
       </c>
       <c r="O26" t="n">
-        <v>957.4573387395848</v>
+        <v>940.5325887341606</v>
       </c>
       <c r="P26" t="n">
         <v>1047.117394031636</v>
@@ -6248,28 +6248,28 @@
         <v>1075.098827576895</v>
       </c>
       <c r="R26" t="n">
-        <v>962.3570655178398</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="S26" t="n">
-        <v>789.8668674536377</v>
+        <v>1022.678942959737</v>
       </c>
       <c r="T26" t="n">
-        <v>789.8668674536377</v>
+        <v>835.9707853219127</v>
       </c>
       <c r="U26" t="n">
-        <v>574.6235549231819</v>
+        <v>835.9707853219127</v>
       </c>
       <c r="V26" t="n">
-        <v>574.6235549231819</v>
+        <v>835.9707853219127</v>
       </c>
       <c r="W26" t="n">
-        <v>303.1339519997236</v>
+        <v>835.9707853219127</v>
       </c>
       <c r="X26" t="n">
-        <v>31.64434907626537</v>
+        <v>835.9707853219127</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.64434907626537</v>
+        <v>835.9707853219127</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7566899873415</v>
+        <v>229.484989229542</v>
       </c>
       <c r="C27" t="n">
-        <v>193.7566899873415</v>
+        <v>229.484989229542</v>
       </c>
       <c r="D27" t="n">
-        <v>193.7566899873415</v>
+        <v>229.484989229542</v>
       </c>
       <c r="E27" t="n">
-        <v>73.1604203381337</v>
+        <v>229.484989229542</v>
       </c>
       <c r="F27" t="n">
-        <v>73.1604203381337</v>
+        <v>121.5916166126747</v>
       </c>
       <c r="G27" t="n">
-        <v>73.1604203381337</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="H27" t="n">
-        <v>73.1604203381337</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="I27" t="n">
         <v>21.5019765515379</v>
@@ -6315,13 +6315,13 @@
         <v>642.9096023030058</v>
       </c>
       <c r="N27" t="n">
-        <v>908.9965621282872</v>
+        <v>643.7019358795817</v>
       </c>
       <c r="O27" t="n">
-        <v>1005.704269063565</v>
+        <v>892.455349963544</v>
       </c>
       <c r="P27" t="n">
-        <v>1005.704269063565</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="Q27" t="n">
         <v>1075.098827576895</v>
@@ -6330,25 +6330,25 @@
         <v>1075.098827576895</v>
       </c>
       <c r="S27" t="n">
-        <v>940.3226683838113</v>
+        <v>946.9559981444735</v>
       </c>
       <c r="T27" t="n">
-        <v>776.7772590988251</v>
+        <v>783.4105888594872</v>
       </c>
       <c r="U27" t="n">
-        <v>587.1948261914619</v>
+        <v>783.4105888594872</v>
       </c>
       <c r="V27" t="n">
-        <v>538.9270130231157</v>
+        <v>783.4105888594872</v>
       </c>
       <c r="W27" t="n">
-        <v>323.3308416511618</v>
+        <v>567.8144174875333</v>
       </c>
       <c r="X27" t="n">
-        <v>323.3308416511618</v>
+        <v>398.6041026382482</v>
       </c>
       <c r="Y27" t="n">
-        <v>323.3308416511618</v>
+        <v>229.484989229542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.022646919346</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="C28" t="n">
-        <v>239.022646919346</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="D28" t="n">
-        <v>239.022646919346</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="E28" t="n">
-        <v>129.7507386932006</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="F28" t="n">
         <v>21.5019765515379</v>
@@ -6415,19 +6415,19 @@
         <v>358.5265984123794</v>
       </c>
       <c r="U28" t="n">
-        <v>358.5265984123794</v>
+        <v>107.9566430044949</v>
       </c>
       <c r="V28" t="n">
-        <v>358.5265984123794</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="W28" t="n">
-        <v>358.5265984123794</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="X28" t="n">
-        <v>358.5265984123794</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="Y28" t="n">
-        <v>358.5265984123794</v>
+        <v>21.5019765515379</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>699.9568926837061</v>
+        <v>851.5149916840436</v>
       </c>
       <c r="C29" t="n">
-        <v>699.9568926837061</v>
+        <v>851.5149916840436</v>
       </c>
       <c r="D29" t="n">
-        <v>699.9568926837061</v>
+        <v>851.5149916840436</v>
       </c>
       <c r="E29" t="n">
-        <v>699.9568926837061</v>
+        <v>580.0253887605853</v>
       </c>
       <c r="F29" t="n">
-        <v>633.5392257515099</v>
+        <v>308.535785837127</v>
       </c>
       <c r="G29" t="n">
-        <v>362.0496228280516</v>
+        <v>256.9267656217954</v>
       </c>
       <c r="H29" t="n">
-        <v>126.6248337577941</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="I29" t="n">
         <v>21.5019765515379</v>
@@ -6488,25 +6488,25 @@
         <v>1075.098827576895</v>
       </c>
       <c r="S29" t="n">
-        <v>971.4464956071644</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="T29" t="n">
-        <v>971.4464956071644</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="U29" t="n">
-        <v>971.4464956071644</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="V29" t="n">
-        <v>971.4464956071644</v>
+        <v>851.5149916840436</v>
       </c>
       <c r="W29" t="n">
-        <v>971.4464956071644</v>
+        <v>851.5149916840436</v>
       </c>
       <c r="X29" t="n">
-        <v>971.4464956071644</v>
+        <v>851.5149916840436</v>
       </c>
       <c r="Y29" t="n">
-        <v>971.4464956071644</v>
+        <v>851.5149916840436</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>21.5019765515379</v>
       </c>
       <c r="K30" t="n">
-        <v>78.25731167262165</v>
+        <v>21.5019765515379</v>
       </c>
       <c r="L30" t="n">
-        <v>308.2204175409708</v>
+        <v>42.13345771568936</v>
       </c>
       <c r="M30" t="n">
         <v>308.2204175409708</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.5019765515379</v>
+        <v>111.4776489771974</v>
       </c>
       <c r="C31" t="n">
-        <v>21.5019765515379</v>
+        <v>111.4776489771974</v>
       </c>
       <c r="D31" t="n">
-        <v>21.5019765515379</v>
+        <v>111.4776489771974</v>
       </c>
       <c r="E31" t="n">
-        <v>21.5019765515379</v>
+        <v>71.04360684552378</v>
       </c>
       <c r="F31" t="n">
-        <v>21.5019765515379</v>
+        <v>71.04360684552378</v>
       </c>
       <c r="G31" t="n">
-        <v>21.5019765515379</v>
+        <v>71.04360684552378</v>
       </c>
       <c r="H31" t="n">
-        <v>21.5019765515379</v>
+        <v>71.04360684552378</v>
       </c>
       <c r="I31" t="n">
         <v>21.5019765515379</v>
@@ -6646,25 +6646,25 @@
         <v>796.2889792865467</v>
       </c>
       <c r="S31" t="n">
-        <v>796.2889792865467</v>
+        <v>677.4886387807285</v>
       </c>
       <c r="T31" t="n">
-        <v>673.5199606076889</v>
+        <v>677.4886387807285</v>
       </c>
       <c r="U31" t="n">
-        <v>491.7878712942761</v>
+        <v>677.4886387807285</v>
       </c>
       <c r="V31" t="n">
-        <v>344.5824345391087</v>
+        <v>601.4092080830674</v>
       </c>
       <c r="W31" t="n">
-        <v>162.6443159528675</v>
+        <v>419.4710894968263</v>
       </c>
       <c r="X31" t="n">
-        <v>162.6443159528675</v>
+        <v>298.9605900495284</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.33078826005689</v>
+        <v>185.6470623567177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>606.2253878646488</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="C32" t="n">
-        <v>606.2253878646488</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="D32" t="n">
-        <v>355.4387407086178</v>
+        <v>1071.39557439217</v>
       </c>
       <c r="E32" t="n">
-        <v>83.94913778515956</v>
+        <v>799.9059714687119</v>
       </c>
       <c r="F32" t="n">
-        <v>83.94913778515956</v>
+        <v>528.4163685452536</v>
       </c>
       <c r="G32" t="n">
-        <v>83.94913778515956</v>
+        <v>256.9267656217954</v>
       </c>
       <c r="H32" t="n">
         <v>21.5019765515379</v>
@@ -6734,16 +6734,16 @@
         <v>1075.098827576895</v>
       </c>
       <c r="V32" t="n">
-        <v>851.5149916840436</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="W32" t="n">
-        <v>606.2253878646488</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="X32" t="n">
-        <v>606.2253878646488</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="Y32" t="n">
-        <v>606.2253878646488</v>
+        <v>1075.098827576895</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.887080777975</v>
+        <v>257.8870807779755</v>
       </c>
       <c r="C33" t="n">
         <v>190.9131029475675</v>
@@ -6780,19 +6780,19 @@
         <v>21.5019765515379</v>
       </c>
       <c r="K33" t="n">
-        <v>21.5019765515379</v>
+        <v>146.8595366093753</v>
       </c>
       <c r="L33" t="n">
-        <v>251.465082419887</v>
+        <v>294.1714938423697</v>
       </c>
       <c r="M33" t="n">
-        <v>517.5520422451684</v>
+        <v>560.2584536676511</v>
       </c>
       <c r="N33" t="n">
-        <v>783.6390020704498</v>
+        <v>826.3454134929325</v>
       </c>
       <c r="O33" t="n">
-        <v>1032.392416154412</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="P33" t="n">
         <v>1075.098827576895</v>
@@ -6822,7 +6822,7 @@
         <v>418.9046136615585</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.6233663473236</v>
+        <v>318.623366347324</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.5019765515379</v>
+        <v>549.7458499867423</v>
       </c>
       <c r="C34" t="n">
-        <v>21.5019765515379</v>
+        <v>488.2887185095548</v>
       </c>
       <c r="D34" t="n">
-        <v>21.5019765515379</v>
+        <v>445.6511305479386</v>
       </c>
       <c r="E34" t="n">
-        <v>21.5019765515379</v>
+        <v>445.6511305479386</v>
       </c>
       <c r="F34" t="n">
-        <v>21.5019765515379</v>
+        <v>406.2402345007477</v>
       </c>
       <c r="G34" t="n">
-        <v>21.5019765515379</v>
+        <v>406.2402345007477</v>
       </c>
       <c r="H34" t="n">
-        <v>21.5019765515379</v>
+        <v>349.8534551358716</v>
       </c>
       <c r="I34" t="n">
-        <v>21.5019765515379</v>
+        <v>300.3118248418858</v>
       </c>
       <c r="J34" t="n">
-        <v>34.41660656288201</v>
+        <v>313.2264548532299</v>
       </c>
       <c r="K34" t="n">
-        <v>117.7100279821081</v>
+        <v>396.519876272456</v>
       </c>
       <c r="L34" t="n">
-        <v>250.3643713166713</v>
+        <v>529.1742196070192</v>
       </c>
       <c r="M34" t="n">
-        <v>394.8926278357436</v>
+        <v>673.7024761260915</v>
       </c>
       <c r="N34" t="n">
-        <v>543.9236968180301</v>
+        <v>822.7335451083779</v>
       </c>
       <c r="O34" t="n">
-        <v>673.6031917797795</v>
+        <v>952.4130400701273</v>
       </c>
       <c r="P34" t="n">
-        <v>776.2491837788742</v>
+        <v>1055.059032069222</v>
       </c>
       <c r="Q34" t="n">
-        <v>796.2889792865469</v>
+        <v>1075.098827576895</v>
       </c>
       <c r="R34" t="n">
-        <v>773.9469803910351</v>
+        <v>1003.493645313302</v>
       </c>
       <c r="S34" t="n">
-        <v>655.146639885217</v>
+        <v>1003.493645313302</v>
       </c>
       <c r="T34" t="n">
-        <v>532.3776212063592</v>
+        <v>1003.493645313302</v>
       </c>
       <c r="U34" t="n">
-        <v>350.6455318929465</v>
+        <v>821.7615559998889</v>
       </c>
       <c r="V34" t="n">
-        <v>203.4400951377791</v>
+        <v>674.5561192447215</v>
       </c>
       <c r="W34" t="n">
-        <v>21.5019765515379</v>
+        <v>674.5561192447215</v>
       </c>
       <c r="X34" t="n">
-        <v>21.5019765515379</v>
+        <v>663.0593776795529</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.5019765515379</v>
+        <v>549.7458499867423</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="C35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="D35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="E35" t="n">
-        <v>709.9048294419047</v>
+        <v>682.4234525682118</v>
       </c>
       <c r="F35" t="n">
-        <v>479.3563657364277</v>
+        <v>451.8749888627349</v>
       </c>
       <c r="G35" t="n">
-        <v>248.8079020309507</v>
+        <v>221.3265251572579</v>
       </c>
       <c r="H35" t="n">
         <v>18.25943832547378</v>
@@ -6938,19 +6938,19 @@
         <v>18.25943832547378</v>
       </c>
       <c r="K35" t="n">
-        <v>71.21090978418766</v>
+        <v>121.2744442363961</v>
       </c>
       <c r="L35" t="n">
-        <v>251.2867613688462</v>
+        <v>301.3502958210547</v>
       </c>
       <c r="M35" t="n">
-        <v>468.2623886317504</v>
+        <v>518.3259230839589</v>
       </c>
       <c r="N35" t="n">
-        <v>674.1169108389897</v>
+        <v>724.1804452911981</v>
       </c>
       <c r="O35" t="n">
-        <v>823.3118609816378</v>
+        <v>873.3753954338462</v>
       </c>
       <c r="P35" t="n">
         <v>912.9719162736887</v>
@@ -6962,25 +6962,25 @@
         <v>912.9719162736887</v>
       </c>
       <c r="S35" t="n">
-        <v>827.7751209852572</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="T35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="U35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="V35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="W35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="X35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="Y35" t="n">
-        <v>709.9048294419047</v>
+        <v>912.9719162736887</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.9918197106173</v>
+        <v>196.0414167890039</v>
       </c>
       <c r="C36" t="n">
-        <v>70.0178418802098</v>
+        <v>181.7804805798021</v>
       </c>
       <c r="D36" t="n">
-        <v>70.0178418802098</v>
+        <v>140.3251223692704</v>
       </c>
       <c r="E36" t="n">
-        <v>18.25943832547378</v>
+        <v>88.56671881453434</v>
       </c>
       <c r="F36" t="n">
-        <v>18.25943832547378</v>
+        <v>49.51121229213878</v>
       </c>
       <c r="G36" t="n">
         <v>18.25943832547378</v>
@@ -7017,22 +7017,22 @@
         <v>18.25943832547378</v>
       </c>
       <c r="K36" t="n">
-        <v>143.6169983833112</v>
+        <v>18.25943832547378</v>
       </c>
       <c r="L36" t="n">
-        <v>143.6169983833112</v>
+        <v>244.2199876032117</v>
       </c>
       <c r="M36" t="n">
-        <v>369.5775476610492</v>
+        <v>470.1805368809497</v>
       </c>
       <c r="N36" t="n">
-        <v>595.5380969387871</v>
+        <v>687.0113669959508</v>
       </c>
       <c r="O36" t="n">
-        <v>660.9338801470085</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="P36" t="n">
-        <v>843.5773577603594</v>
+        <v>912.9719162736887</v>
       </c>
       <c r="Q36" t="n">
         <v>912.9719162736887</v>
@@ -7041,25 +7041,25 @@
         <v>912.9719162736887</v>
       </c>
       <c r="S36" t="n">
-        <v>888.2652734109249</v>
+        <v>847.0336231750771</v>
       </c>
       <c r="T36" t="n">
-        <v>793.5577302204105</v>
+        <v>752.3260799845626</v>
       </c>
       <c r="U36" t="n">
-        <v>672.813163407519</v>
+        <v>631.5815131716712</v>
       </c>
       <c r="V36" t="n">
-        <v>545.1401066264958</v>
+        <v>503.908456390648</v>
       </c>
       <c r="W36" t="n">
-        <v>398.3818013490136</v>
+        <v>357.1501511131658</v>
       </c>
       <c r="X36" t="n">
-        <v>298.0093525942003</v>
+        <v>256.7777023583525</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.7281052799659</v>
+        <v>256.7777023583525</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.25943832547378</v>
+        <v>122.3541577642774</v>
       </c>
       <c r="C37" t="n">
-        <v>18.25943832547378</v>
+        <v>60.89702628709001</v>
       </c>
       <c r="D37" t="n">
         <v>18.25943832547378</v>
@@ -7117,28 +7117,28 @@
         <v>793.0464410604827</v>
       </c>
       <c r="R37" t="n">
-        <v>793.0464410604827</v>
+        <v>721.4412587968895</v>
       </c>
       <c r="S37" t="n">
-        <v>703.7900102130203</v>
+        <v>602.6409182910713</v>
       </c>
       <c r="T37" t="n">
-        <v>581.0209915341625</v>
+        <v>479.8718996122135</v>
       </c>
       <c r="U37" t="n">
-        <v>399.2889022207497</v>
+        <v>479.8718996122135</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0834654655823</v>
+        <v>479.8718996122135</v>
       </c>
       <c r="W37" t="n">
-        <v>252.0834654655823</v>
+        <v>430.3475982839061</v>
       </c>
       <c r="X37" t="n">
-        <v>131.5729660182844</v>
+        <v>309.8370988366083</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.25943832547378</v>
+        <v>196.5235711437977</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.7640186622225</v>
+        <v>406.2651887885084</v>
       </c>
       <c r="C38" t="n">
-        <v>578.3690644545906</v>
+        <v>210.8702345808764</v>
       </c>
       <c r="D38" t="n">
-        <v>578.3690644545906</v>
+        <v>210.8702345808764</v>
       </c>
       <c r="E38" t="n">
-        <v>382.9741102469586</v>
+        <v>210.8702345808764</v>
       </c>
       <c r="F38" t="n">
-        <v>382.9741102469586</v>
+        <v>210.8702345808764</v>
       </c>
       <c r="G38" t="n">
-        <v>187.5791560393266</v>
+        <v>15.47528037324445</v>
       </c>
       <c r="H38" t="n">
         <v>15.47528037324445</v>
@@ -7175,13 +7175,13 @@
         <v>15.47528037324445</v>
       </c>
       <c r="K38" t="n">
-        <v>15.47528037324445</v>
+        <v>118.4902862841668</v>
       </c>
       <c r="L38" t="n">
-        <v>195.551131957903</v>
+        <v>298.5661378688254</v>
       </c>
       <c r="M38" t="n">
-        <v>343.4024186086234</v>
+        <v>490.0727324877254</v>
       </c>
       <c r="N38" t="n">
         <v>534.9090132275235</v>
@@ -7217,7 +7217,7 @@
         <v>773.7640186622225</v>
       </c>
       <c r="Y38" t="n">
-        <v>773.7640186622225</v>
+        <v>601.6601429961404</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.53706514330086</v>
+        <v>87.29938194897944</v>
       </c>
       <c r="C39" t="n">
-        <v>15.47528037324445</v>
+        <v>87.29938194897944</v>
       </c>
       <c r="D39" t="n">
-        <v>15.47528037324445</v>
+        <v>87.29938194897944</v>
       </c>
       <c r="E39" t="n">
-        <v>15.47528037324445</v>
+        <v>28.45317145459453</v>
       </c>
       <c r="F39" t="n">
-        <v>15.47528037324445</v>
+        <v>28.45317145459453</v>
       </c>
       <c r="G39" t="n">
-        <v>15.47528037324445</v>
+        <v>28.45317145459453</v>
       </c>
       <c r="H39" t="n">
         <v>15.47528037324445</v>
@@ -7254,22 +7254,22 @@
         <v>15.47528037324445</v>
       </c>
       <c r="K39" t="n">
-        <v>15.47528037324445</v>
+        <v>140.8328404310818</v>
       </c>
       <c r="L39" t="n">
-        <v>15.47528037324445</v>
+        <v>140.8328404310818</v>
       </c>
       <c r="M39" t="n">
-        <v>138.7127932977421</v>
+        <v>208.1073518110716</v>
       </c>
       <c r="N39" t="n">
-        <v>330.2193879166422</v>
+        <v>399.6139464299716</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7259825355422</v>
+        <v>591.1205410488717</v>
       </c>
       <c r="P39" t="n">
-        <v>704.3694601488932</v>
+        <v>773.7640186622225</v>
       </c>
       <c r="Q39" t="n">
         <v>773.7640186622225</v>
@@ -7278,25 +7278,25 @@
         <v>773.7640186622225</v>
       </c>
       <c r="S39" t="n">
-        <v>700.7379186239619</v>
+        <v>773.7640186622225</v>
       </c>
       <c r="T39" t="n">
-        <v>598.9425684937986</v>
+        <v>671.9686685320592</v>
       </c>
       <c r="U39" t="n">
-        <v>471.1101947412583</v>
+        <v>544.1362947795188</v>
       </c>
       <c r="V39" t="n">
-        <v>336.3493310205862</v>
+        <v>416.4298423695702</v>
       </c>
       <c r="W39" t="n">
-        <v>336.3493310205862</v>
+        <v>262.5837301524391</v>
       </c>
       <c r="X39" t="n">
-        <v>228.889075326124</v>
+        <v>155.1234744579769</v>
       </c>
       <c r="Y39" t="n">
-        <v>121.5200210722407</v>
+        <v>155.1234744579769</v>
       </c>
     </row>
     <row r="40">
@@ -7363,13 +7363,13 @@
         <v>400.2502441886386</v>
       </c>
       <c r="U40" t="n">
-        <v>211.4303479355769</v>
+        <v>400.2502441886386</v>
       </c>
       <c r="V40" t="n">
-        <v>57.13710424076064</v>
+        <v>245.9570004938223</v>
       </c>
       <c r="W40" t="n">
-        <v>15.47528037324445</v>
+        <v>143.0735867601912</v>
       </c>
       <c r="X40" t="n">
         <v>15.47528037324445</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>633.2881802273012</v>
+        <v>190.2076144800948</v>
       </c>
       <c r="C41" t="n">
-        <v>467.340563731728</v>
+        <v>24.25999798452159</v>
       </c>
       <c r="D41" t="n">
-        <v>467.340563731728</v>
+        <v>24.25999798452159</v>
       </c>
       <c r="E41" t="n">
-        <v>467.340563731728</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="F41" t="n">
-        <v>301.3929472361548</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G41" t="n">
-        <v>135.4453307405816</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H41" t="n">
-        <v>135.4453307405816</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I41" t="n">
         <v>13.1430512264494</v>
@@ -7415,16 +7415,16 @@
         <v>116.1580571373718</v>
       </c>
       <c r="L41" t="n">
-        <v>116.1580571373718</v>
+        <v>278.803316064683</v>
       </c>
       <c r="M41" t="n">
-        <v>278.803316064683</v>
+        <v>441.4485749919943</v>
       </c>
       <c r="N41" t="n">
-        <v>418.2975558877707</v>
+        <v>604.0938339193056</v>
       </c>
       <c r="O41" t="n">
-        <v>567.4925060304188</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="P41" t="n">
         <v>657.1525613224698</v>
@@ -7439,22 +7439,22 @@
         <v>657.1525613224698</v>
       </c>
       <c r="T41" t="n">
-        <v>657.1525613224698</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="U41" t="n">
-        <v>657.1525613224698</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="V41" t="n">
-        <v>657.1525613224698</v>
+        <v>356.155230975668</v>
       </c>
       <c r="W41" t="n">
-        <v>633.2881802273012</v>
+        <v>356.155230975668</v>
       </c>
       <c r="X41" t="n">
-        <v>633.2881802273012</v>
+        <v>190.2076144800948</v>
       </c>
       <c r="Y41" t="n">
-        <v>633.2881802273012</v>
+        <v>190.2076144800948</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.57424750099037</v>
+        <v>333.3544124561747</v>
       </c>
       <c r="C42" t="n">
-        <v>61.57424750099037</v>
+        <v>249.2010123178912</v>
       </c>
       <c r="D42" t="n">
-        <v>61.57424750099037</v>
+        <v>209.816508643451</v>
       </c>
       <c r="E42" t="n">
-        <v>61.57424750099037</v>
+        <v>140.8786827808391</v>
       </c>
       <c r="F42" t="n">
-        <v>61.57424750099037</v>
+        <v>84.64375395056753</v>
       </c>
       <c r="G42" t="n">
-        <v>13.1430512264494</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="H42" t="n">
         <v>13.1430512264494</v>
@@ -7512,28 +7512,28 @@
         <v>657.1525613224698</v>
       </c>
       <c r="R42" t="n">
-        <v>657.1525613224698</v>
+        <v>646.282661018199</v>
       </c>
       <c r="S42" t="n">
-        <v>657.1525613224698</v>
+        <v>646.282661018199</v>
       </c>
       <c r="T42" t="n">
-        <v>625.7491129181255</v>
+        <v>646.282661018199</v>
       </c>
       <c r="U42" t="n">
-        <v>487.8251237973581</v>
+        <v>646.282661018199</v>
       </c>
       <c r="V42" t="n">
-        <v>342.9726447084589</v>
+        <v>646.282661018199</v>
       </c>
       <c r="W42" t="n">
-        <v>179.0349171231007</v>
+        <v>646.282661018199</v>
       </c>
       <c r="X42" t="n">
-        <v>179.0349171231007</v>
+        <v>528.7307899555096</v>
       </c>
       <c r="Y42" t="n">
-        <v>61.57424750099037</v>
+        <v>411.2701203333992</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.2565038401628</v>
+        <v>215.2767410264686</v>
       </c>
       <c r="C43" t="n">
-        <v>351.2565038401628</v>
+        <v>215.2767410264686</v>
       </c>
       <c r="D43" t="n">
-        <v>291.4394935706706</v>
+        <v>155.4597307569765</v>
       </c>
       <c r="E43" t="n">
-        <v>233.826029131121</v>
+        <v>155.4597307569765</v>
       </c>
       <c r="F43" t="n">
-        <v>232.8185342960569</v>
+        <v>155.4597307569765</v>
       </c>
       <c r="G43" t="n">
-        <v>153.4303055010633</v>
+        <v>155.4597307569765</v>
       </c>
       <c r="H43" t="n">
-        <v>79.86410382831123</v>
+        <v>83.86667682352102</v>
       </c>
       <c r="I43" t="n">
-        <v>13.1430512264494</v>
+        <v>17.14562422165919</v>
       </c>
       <c r="J43" t="n">
         <v>13.1430512264494</v>
@@ -7594,25 +7594,25 @@
         <v>657.1525613224698</v>
       </c>
       <c r="S43" t="n">
-        <v>657.1525613224698</v>
+        <v>521.1727985087756</v>
       </c>
       <c r="T43" t="n">
-        <v>517.204120335736</v>
+        <v>381.2243575220418</v>
       </c>
       <c r="U43" t="n">
-        <v>351.2565038401628</v>
+        <v>381.2243575220418</v>
       </c>
       <c r="V43" t="n">
-        <v>351.2565038401628</v>
+        <v>381.2243575220418</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2565038401628</v>
+        <v>215.2767410264686</v>
       </c>
       <c r="X43" t="n">
-        <v>351.2565038401628</v>
+        <v>215.2767410264686</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.2565038401628</v>
+        <v>215.2767410264686</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26.91919322818391</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="C44" t="n">
         <v>2.220833441325174</v>
@@ -7655,13 +7655,13 @@
         <v>57.18646111412322</v>
       </c>
       <c r="M44" t="n">
-        <v>83.55885822985965</v>
+        <v>84.66927495052224</v>
       </c>
       <c r="N44" t="n">
-        <v>83.55885822985965</v>
+        <v>84.66927495052224</v>
       </c>
       <c r="O44" t="n">
-        <v>111.0416720662587</v>
+        <v>84.66927495052224</v>
       </c>
       <c r="P44" t="n">
         <v>111.0416720662587</v>
@@ -7673,10 +7673,10 @@
         <v>111.0416720662587</v>
       </c>
       <c r="S44" t="n">
-        <v>111.0416720662587</v>
+        <v>83.00084578690043</v>
       </c>
       <c r="T44" t="n">
-        <v>83.00084578690043</v>
+        <v>54.96001950754217</v>
       </c>
       <c r="U44" t="n">
         <v>54.96001950754217</v>
@@ -7691,7 +7691,7 @@
         <v>54.96001950754217</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.91919322818391</v>
+        <v>30.26165972068343</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="C45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="D45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="E45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="F45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="G45" t="n">
-        <v>30.26165972068343</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="H45" t="n">
         <v>2.220833441325174</v>
@@ -7734,16 +7734,16 @@
         <v>2.220833441325174</v>
       </c>
       <c r="M45" t="n">
-        <v>29.7036472777242</v>
+        <v>28.5932305570616</v>
       </c>
       <c r="N45" t="n">
-        <v>29.7036472777242</v>
+        <v>28.5932305570616</v>
       </c>
       <c r="O45" t="n">
-        <v>57.18646111412322</v>
+        <v>56.07604439346063</v>
       </c>
       <c r="P45" t="n">
-        <v>84.66927495052224</v>
+        <v>83.55885822985965</v>
       </c>
       <c r="Q45" t="n">
         <v>111.0416720662587</v>
@@ -7761,16 +7761,16 @@
         <v>83.00084578690043</v>
       </c>
       <c r="V45" t="n">
-        <v>83.00084578690043</v>
+        <v>54.96001950754217</v>
       </c>
       <c r="W45" t="n">
-        <v>54.96001950754217</v>
+        <v>26.91919322818391</v>
       </c>
       <c r="X45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.96001950754217</v>
+        <v>2.220833441325174</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>86.34331227939994</v>
+      </c>
+      <c r="C46" t="n">
+        <v>86.34331227939994</v>
+      </c>
+      <c r="D46" t="n">
+        <v>86.34331227939994</v>
+      </c>
+      <c r="E46" t="n">
         <v>58.30248600004168</v>
       </c>
-      <c r="C46" t="n">
+      <c r="F46" t="n">
         <v>30.26165972068343</v>
-      </c>
-      <c r="D46" t="n">
-        <v>30.26165972068343</v>
-      </c>
-      <c r="E46" t="n">
-        <v>30.26165972068343</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.220833441325174</v>
       </c>
       <c r="G46" t="n">
         <v>2.220833441325174</v>
@@ -7822,34 +7822,34 @@
         <v>108.8398627567355</v>
       </c>
       <c r="P46" t="n">
-        <v>106.0909327212743</v>
+        <v>108.8398627567355</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="R46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="S46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="T46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="V46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="W46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="X46" t="n">
-        <v>106.0909327212743</v>
+        <v>86.34331227939994</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.05010644191609</v>
+        <v>86.34331227939994</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>260.6215788707821</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>276.2981427957887</v>
@@ -8699,13 +8699,13 @@
         <v>269.240315484355</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>269.9447914223924</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>270.6299392474882</v>
       </c>
       <c r="P11" t="n">
-        <v>271.7647235810711</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7355212314412</v>
+        <v>178.3731668001605</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>177.4484620369564</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8781,7 +8781,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>183.1279722702459</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>174.5061352401317</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>292.3797673250156</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>311.1001171986553</v>
       </c>
       <c r="M14" t="n">
-        <v>302.6361495073078</v>
+        <v>305.6799354559408</v>
       </c>
       <c r="N14" t="n">
-        <v>304.746765825259</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>305.4319136503548</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>306.5666979839376</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>213.1751412030271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>213.8880820085423</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>214.4239502020533</v>
+        <v>144.3284365522258</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>206.6754143120014</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>217.9299466731125</v>
       </c>
       <c r="P15" t="n">
         <v>209.3081096429983</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,13 +9167,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>340.2529815335935</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>240.4764129549726</v>
+        <v>334.832799790879</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>239.5432433242908</v>
       </c>
       <c r="O17" t="n">
         <v>334.584777985293</v>
@@ -9246,16 +9246,16 @@
         <v>242.3280055379653</v>
       </c>
       <c r="L18" t="n">
-        <v>238.819266886365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>235.8282786469396</v>
       </c>
       <c r="O18" t="n">
-        <v>247.0828110080507</v>
+        <v>242.8611315509353</v>
       </c>
       <c r="P18" t="n">
         <v>238.4609739779365</v>
@@ -9483,16 +9483,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>177.6614282468486</v>
+        <v>195.170060308787</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,10 +9726,10 @@
         <v>410.908740816242</v>
       </c>
       <c r="N24" t="n">
-        <v>400.116418977557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9963,16 +9963,16 @@
         <v>410.908740816242</v>
       </c>
       <c r="N27" t="n">
-        <v>400.116418977557</v>
+        <v>132.1420490293695</v>
       </c>
       <c r="O27" t="n">
-        <v>240.2807969043214</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>195.170060308787</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>159.3942597436636</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>410.908740816242</v>
       </c>
       <c r="N30" t="n">
         <v>400.116418977557</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>287.3543365808786</v>
       </c>
       <c r="M33" t="n">
         <v>410.908740816242</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>177.1121967299693</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>273.5761858517623</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>271.2294814520802</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>366.7973588482964</v>
       </c>
       <c r="M36" t="n">
         <v>370.3770129904405</v>
       </c>
       <c r="N36" t="n">
-        <v>359.5846911517555</v>
+        <v>350.3627526035364</v>
       </c>
       <c r="O36" t="n">
-        <v>208.6525911194155</v>
+        <v>370.8392235128666</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>379.6909672178994</v>
+        <v>423.7872378928283</v>
       </c>
       <c r="N38" t="n">
-        <v>422.8540682621465</v>
+        <v>274.7022360610334</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>266.6163702093897</v>
+        <v>210.0880858209978</v>
       </c>
       <c r="N39" t="n">
         <v>324.7827167488889</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,19 +11063,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>400.0545553006046</v>
       </c>
       <c r="M41" t="n">
         <v>394.6343735578902</v>
       </c>
       <c r="N41" t="n">
-        <v>370.3163361451643</v>
+        <v>393.7012039272083</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>283.692885566297</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11303,16 +11303,16 @@
         <v>263.5268329865519</v>
       </c>
       <c r="M44" t="n">
-        <v>256.9850181926631</v>
+        <v>258.1066512438374</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>257.8586294382514</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>257.8717807206599</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,7 +11382,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>169.894451938583</v>
+        <v>168.7728188874086</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11394,7 +11394,7 @@
         <v>161.7348254308949</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6205590514119</v>
+        <v>167.7421921025862</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23261,22 @@
         <v>355.2821925564627</v>
       </c>
       <c r="D11" t="n">
-        <v>304.1606145803366</v>
+        <v>344.6923424061382</v>
       </c>
       <c r="E11" t="n">
         <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
-        <v>356.3536187013651</v>
+        <v>396.8853465271666</v>
       </c>
       <c r="G11" t="n">
         <v>405.3120383005902</v>
       </c>
       <c r="H11" t="n">
-        <v>288.9523750754208</v>
+        <v>329.4841029012223</v>
       </c>
       <c r="I11" t="n">
-        <v>164.7848444868952</v>
+        <v>200.4851903558611</v>
       </c>
       <c r="J11" t="n">
         <v>1.958590140067713</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>139.8784187266049</v>
+        <v>104.1780728576389</v>
       </c>
       <c r="S11" t="n">
-        <v>199.0293703717005</v>
+        <v>158.4976425458991</v>
       </c>
       <c r="T11" t="n">
-        <v>213.1051503495866</v>
+        <v>172.5734225237851</v>
       </c>
       <c r="U11" t="n">
-        <v>241.3549536932917</v>
+        <v>200.8232258674902</v>
       </c>
       <c r="V11" t="n">
         <v>317.7615592555901</v>
@@ -23346,16 +23346,16 @@
         <v>107.1226534150547</v>
       </c>
       <c r="F12" t="n">
-        <v>94.54678535303759</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G12" t="n">
-        <v>86.82109012286435</v>
+        <v>127.3528179486658</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2447450219517</v>
+        <v>66.5443991529857</v>
       </c>
       <c r="I12" t="n">
-        <v>79.40593363687027</v>
+        <v>38.87420581106878</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S12" t="n">
-        <v>161.692471889293</v>
+        <v>121.1607440634915</v>
       </c>
       <c r="T12" t="n">
         <v>190.1740294802768</v>
@@ -23394,7 +23394,7 @@
         <v>215.95068286643</v>
       </c>
       <c r="V12" t="n">
-        <v>187.1095420659145</v>
+        <v>222.8098879348805</v>
       </c>
       <c r="W12" t="n">
         <v>241.7042839463748</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.1409350984266</v>
+        <v>169.8412809673925</v>
       </c>
       <c r="C13" t="n">
         <v>157.256121884083</v>
@@ -23434,13 +23434,13 @@
         <v>152.2364732928948</v>
       </c>
       <c r="I13" t="n">
-        <v>104.928047886912</v>
+        <v>145.4597757127135</v>
       </c>
       <c r="J13" t="n">
-        <v>83.36848090212797</v>
+        <v>59.94692764450006</v>
       </c>
       <c r="K13" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>35.63961621134809</v>
       </c>
       <c r="R13" t="n">
-        <v>167.3026921626247</v>
+        <v>126.7709643368232</v>
       </c>
       <c r="S13" t="n">
-        <v>214.0258988224275</v>
+        <v>173.494170996626</v>
       </c>
       <c r="T13" t="n">
         <v>217.9548902137367</v>
       </c>
       <c r="U13" t="n">
-        <v>235.7966023161446</v>
+        <v>276.3283301419461</v>
       </c>
       <c r="V13" t="n">
         <v>242.1469441092832</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.4959970310478</v>
+        <v>276.1622948023797</v>
       </c>
       <c r="C14" t="n">
         <v>334.0350471385747</v>
@@ -23504,16 +23504,16 @@
         <v>350.692525439829</v>
       </c>
       <c r="F14" t="n">
-        <v>309.2842761862678</v>
+        <v>300.3044988806105</v>
       </c>
       <c r="G14" t="n">
-        <v>308.7311906540342</v>
+        <v>317.7109679596914</v>
       </c>
       <c r="H14" t="n">
         <v>232.9032552546662</v>
       </c>
       <c r="I14" t="n">
-        <v>103.904342709305</v>
+        <v>179.2380449379731</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23580,13 +23580,13 @@
         <v>116.2072209322059</v>
       </c>
       <c r="E15" t="n">
-        <v>126.4072358229681</v>
+        <v>51.07353359430005</v>
       </c>
       <c r="F15" t="n">
-        <v>113.8313677609511</v>
+        <v>47.47744283794023</v>
       </c>
       <c r="G15" t="n">
-        <v>106.1056725307778</v>
+        <v>30.77197030210974</v>
       </c>
       <c r="H15" t="n">
         <v>80.99759960406364</v>
@@ -23622,22 +23622,22 @@
         <v>68.91998952021031</v>
       </c>
       <c r="S15" t="n">
-        <v>74.09140154839416</v>
+        <v>140.445326471405</v>
       </c>
       <c r="T15" t="n">
-        <v>93.59318183372071</v>
+        <v>168.9268840623888</v>
       </c>
       <c r="U15" t="n">
-        <v>119.3698352198739</v>
+        <v>194.703537448542</v>
       </c>
       <c r="V15" t="n">
         <v>201.5627425169924</v>
       </c>
       <c r="W15" t="n">
-        <v>145.1234362998187</v>
+        <v>220.4571385284868</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5351405710446</v>
+        <v>99.20143834237658</v>
       </c>
       <c r="Y15" t="n">
         <v>174.4448511448715</v>
@@ -23659,7 +23659,7 @@
         <v>117.3776283857795</v>
       </c>
       <c r="E16" t="n">
-        <v>39.86241578546827</v>
+        <v>115.1961180141363</v>
       </c>
       <c r="F16" t="n">
         <v>114.1832033904984</v>
@@ -23668,13 +23668,13 @@
         <v>61.41943249735786</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9893278750068</v>
+        <v>55.65562564633868</v>
       </c>
       <c r="I16" t="n">
-        <v>124.2126302948255</v>
+        <v>48.87892806615739</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>62.12133548423995</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.69160918049069</v>
+        <v>54.92419861926156</v>
       </c>
       <c r="R16" t="n">
         <v>146.0555467447367</v>
       </c>
       <c r="S16" t="n">
-        <v>117.4450511758714</v>
+        <v>192.7787534045394</v>
       </c>
       <c r="T16" t="n">
         <v>196.7077447958487</v>
       </c>
       <c r="U16" t="n">
-        <v>255.0811847240581</v>
+        <v>188.7272598010472</v>
       </c>
       <c r="V16" t="n">
         <v>220.8997986913952</v>
@@ -23738,13 +23738,13 @@
         <v>323.4451969882501</v>
       </c>
       <c r="E17" t="n">
-        <v>258.6607576106046</v>
+        <v>350.692525439829</v>
       </c>
       <c r="F17" t="n">
         <v>375.6382011092786</v>
       </c>
       <c r="G17" t="n">
-        <v>279.5783263190959</v>
+        <v>384.0648928827022</v>
       </c>
       <c r="H17" t="n">
         <v>308.2369574833343</v>
@@ -23783,7 +23783,7 @@
         <v>177.7822249538125</v>
       </c>
       <c r="T17" t="n">
-        <v>191.8580049316985</v>
+        <v>99.82623710247418</v>
       </c>
       <c r="U17" t="n">
         <v>115.6212417117974</v>
@@ -23792,7 +23792,7 @@
         <v>192.0278472740958</v>
       </c>
       <c r="W17" t="n">
-        <v>318.0031240849802</v>
+        <v>213.5165575213739</v>
       </c>
       <c r="X17" t="n">
         <v>338.4932560460362</v>
@@ -23817,7 +23817,7 @@
         <v>116.2072209322059</v>
       </c>
       <c r="E18" t="n">
-        <v>126.4072358229681</v>
+        <v>34.37546799374374</v>
       </c>
       <c r="F18" t="n">
         <v>113.8313677609511</v>
@@ -23859,10 +23859,10 @@
         <v>68.91998952021031</v>
       </c>
       <c r="S18" t="n">
-        <v>48.41355864218065</v>
+        <v>140.445326471405</v>
       </c>
       <c r="T18" t="n">
-        <v>168.9268840623888</v>
+        <v>64.44031749878249</v>
       </c>
       <c r="U18" t="n">
         <v>90.21697088493571</v>
@@ -23871,7 +23871,7 @@
         <v>97.07617595338616</v>
       </c>
       <c r="W18" t="n">
-        <v>115.9705719648805</v>
+        <v>220.4571385284868</v>
       </c>
       <c r="X18" t="n">
         <v>174.5351405710446</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.5941355495045</v>
+        <v>44.10756898589818</v>
       </c>
       <c r="C19" t="n">
         <v>136.008976466195</v>
@@ -23911,7 +23911,7 @@
         <v>124.2126302948255</v>
       </c>
       <c r="J19" t="n">
-        <v>62.12133548423995</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>255.0811847240581</v>
       </c>
       <c r="V19" t="n">
-        <v>137.482308090781</v>
+        <v>199.603643575021</v>
       </c>
       <c r="W19" t="n">
         <v>255.2851537041582</v>
@@ -23956,7 +23956,7 @@
         <v>194.4718107566043</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.86024215605568</v>
+        <v>187.346808719662</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.4959970310478</v>
+        <v>110.4817081533887</v>
       </c>
       <c r="C20" t="n">
-        <v>334.0350471385747</v>
+        <v>93.02075826091567</v>
       </c>
       <c r="D20" t="n">
-        <v>323.4451969882501</v>
+        <v>82.43090811059108</v>
       </c>
       <c r="E20" t="n">
         <v>350.692525439829</v>
       </c>
       <c r="F20" t="n">
-        <v>281.9840887745534</v>
+        <v>375.6382011092786</v>
       </c>
       <c r="G20" t="n">
         <v>384.0648928827022</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.6312733087169</v>
       </c>
       <c r="S20" t="n">
         <v>177.7822249538125</v>
@@ -24029,13 +24029,13 @@
         <v>296.5144138377021</v>
       </c>
       <c r="W20" t="n">
-        <v>76.98883520732113</v>
+        <v>318.0031240849802</v>
       </c>
       <c r="X20" t="n">
-        <v>97.47896716837715</v>
+        <v>338.4932560460362</v>
       </c>
       <c r="Y20" t="n">
-        <v>113.9858051459617</v>
+        <v>142.7147083801788</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.4376138582936</v>
+        <v>135.2953390174345</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>116.2072209322059</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>126.4072358229681</v>
@@ -24099,13 +24099,13 @@
         <v>140.445326471405</v>
       </c>
       <c r="T21" t="n">
-        <v>168.9268840623888</v>
+        <v>60.71363731846132</v>
       </c>
       <c r="U21" t="n">
         <v>194.703537448542</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>201.5627425169924</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>148.5941355495045</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>136.008976466195</v>
       </c>
       <c r="D22" t="n">
         <v>117.3776283857795</v>
@@ -24148,7 +24148,7 @@
         <v>124.2126302948255</v>
       </c>
       <c r="J22" t="n">
-        <v>62.12133548423995</v>
+        <v>21.36265517152336</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.92419861926156</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.0555467447367</v>
@@ -24178,7 +24178,7 @@
         <v>192.7787534045394</v>
       </c>
       <c r="T22" t="n">
-        <v>196.7077447958487</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>255.0811847240581</v>
@@ -24187,7 +24187,7 @@
         <v>220.8997986913952</v>
       </c>
       <c r="W22" t="n">
-        <v>98.90350644252641</v>
+        <v>255.2851537041582</v>
       </c>
       <c r="X22" t="n">
         <v>194.4718107566043</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107.7423063283631</v>
+        <v>344.4790681607954</v>
       </c>
       <c r="C23" t="n">
-        <v>58.24341137409863</v>
+        <v>327.0181182683223</v>
       </c>
       <c r="D23" t="n">
-        <v>316.4282681179977</v>
+        <v>47.65356122377403</v>
       </c>
       <c r="E23" t="n">
-        <v>343.6755965695766</v>
+        <v>74.90088967535286</v>
       </c>
       <c r="F23" t="n">
-        <v>368.6212722390262</v>
+        <v>99.84656534480251</v>
       </c>
       <c r="G23" t="n">
-        <v>377.0479640124498</v>
+        <v>140.3112021800176</v>
       </c>
       <c r="H23" t="n">
         <v>301.2200286130819</v>
@@ -24266,10 +24266,10 @@
         <v>289.4974849674497</v>
       </c>
       <c r="W23" t="n">
-        <v>42.21148832050409</v>
+        <v>310.9861952147278</v>
       </c>
       <c r="X23" t="n">
-        <v>62.70162028156011</v>
+        <v>331.4763271757838</v>
       </c>
       <c r="Y23" t="n">
         <v>347.9831651533684</v>
@@ -24285,22 +24285,22 @@
         <v>128.2784101471821</v>
       </c>
       <c r="C24" t="n">
-        <v>134.4537254856305</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>109.1902920619535</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>119.3903069527157</v>
+        <v>16.96517619927157</v>
       </c>
       <c r="F24" t="n">
-        <v>106.8144388906987</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>99.08874366052541</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>73.98067073381124</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>51.14185934872985</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>61.90306064995791</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>15.46831386224194</v>
+        <v>133.4283976011526</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>161.9099551921364</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>194.54581364674</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>213.4402096582344</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>47.90726974900916</v>
       </c>
       <c r="R25" t="n">
-        <v>139.0386178744843</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.761824534287</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>189.6908159255963</v>
@@ -24421,13 +24421,13 @@
         <v>248.0642558538057</v>
       </c>
       <c r="V25" t="n">
-        <v>128.4967190128155</v>
+        <v>213.8828698211428</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>248.2682248339058</v>
       </c>
       <c r="X25" t="n">
-        <v>187.4548818863519</v>
+        <v>178.6009486528901</v>
       </c>
       <c r="Y25" t="n">
         <v>180.3298798494096</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>344.4790681607954</v>
+        <v>75.70436126657165</v>
       </c>
       <c r="C26" t="n">
         <v>327.0181182683223</v>
       </c>
       <c r="D26" t="n">
-        <v>316.4282681179977</v>
+        <v>47.65356122377403</v>
       </c>
       <c r="E26" t="n">
-        <v>343.6755965695766</v>
+        <v>74.90088967535286</v>
       </c>
       <c r="F26" t="n">
         <v>368.6212722390262</v>
@@ -24461,7 +24461,7 @@
         <v>301.2200286130819</v>
       </c>
       <c r="I26" t="n">
-        <v>162.1801672682405</v>
+        <v>172.2211160677207</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>111.6143444384645</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>118.8696103125739</v>
       </c>
       <c r="T26" t="n">
-        <v>184.8410760614461</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>213.0908794051513</v>
       </c>
       <c r="V26" t="n">
         <v>289.4974849674497</v>
       </c>
       <c r="W26" t="n">
-        <v>42.21148832050409</v>
+        <v>310.9861952147278</v>
       </c>
       <c r="X26" t="n">
-        <v>62.70162028156011</v>
+        <v>331.4763271757838</v>
       </c>
       <c r="Y26" t="n">
         <v>347.9831651533684</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>128.2784101471821</v>
       </c>
       <c r="C27" t="n">
         <v>134.4537254856305</v>
@@ -24528,19 +24528,19 @@
         <v>109.1902920619535</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.3903069527157</v>
       </c>
       <c r="F27" t="n">
-        <v>106.8144388906987</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>99.08874366052541</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>73.98067073381124</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>51.14185934872985</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>61.90306064995791</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.566996463055503</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>187.6866085782896</v>
       </c>
       <c r="V27" t="n">
-        <v>146.7606786100773</v>
+        <v>194.54581364674</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>167.5182117007922</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>167.4279222746191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.26829470114895</v>
+        <v>141.5772066792521</v>
       </c>
       <c r="C28" t="n">
         <v>128.9920475959426</v>
@@ -24607,10 +24607,10 @@
         <v>110.3606995155271</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>108.1791891438839</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>107.166274520246</v>
       </c>
       <c r="G28" t="n">
         <v>129.7362058557735</v>
@@ -24655,10 +24655,10 @@
         <v>189.6908159255963</v>
       </c>
       <c r="U28" t="n">
-        <v>248.0642558538057</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>213.8828698211428</v>
+        <v>128.2927500327153</v>
       </c>
       <c r="W28" t="n">
         <v>248.2682248339058</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.55487383304461</v>
+        <v>276.3295807272683</v>
       </c>
       <c r="C29" t="n">
         <v>258.8686308347953</v>
@@ -24686,19 +24686,19 @@
         <v>248.2787806844707</v>
       </c>
       <c r="E29" t="n">
-        <v>275.5261091360495</v>
+        <v>6.751402241825815</v>
       </c>
       <c r="F29" t="n">
-        <v>234.7182945426249</v>
+        <v>31.69707791127547</v>
       </c>
       <c r="G29" t="n">
-        <v>40.12376968469908</v>
+        <v>257.8055465657444</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>104.0716286341937</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>43.46485700493743</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.6158086500331</v>
       </c>
       <c r="T29" t="n">
         <v>116.6915886279191</v>
@@ -24737,7 +24737,7 @@
         <v>144.9413919716242</v>
       </c>
       <c r="V29" t="n">
-        <v>221.3479975339226</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>242.8367077812007</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.87719565429124</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>60.84256016241558</v>
@@ -24844,7 +24844,7 @@
         <v>42.2112120820001</v>
       </c>
       <c r="E31" t="n">
-        <v>40.02970171035692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>39.01678708671899</v>
@@ -24856,7 +24856,7 @@
         <v>55.82291157122732</v>
       </c>
       <c r="I31" t="n">
-        <v>49.04621399104603</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>70.88913044095723</v>
       </c>
       <c r="S31" t="n">
-        <v>117.61233710076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>121.5413284920692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>179.9147684202786</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>70.41474599693125</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>119.3053944528249</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,19 +24920,19 @@
         <v>258.8686308347953</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>244.6125600315933</v>
       </c>
       <c r="E32" t="n">
         <v>6.751402241825815</v>
       </c>
       <c r="F32" t="n">
-        <v>300.4717848054992</v>
+        <v>31.69707791127547</v>
       </c>
       <c r="G32" t="n">
-        <v>308.8984765789228</v>
+        <v>40.12376968469908</v>
       </c>
       <c r="H32" t="n">
-        <v>171.2478515582694</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>104.0716286341936</v>
@@ -24974,10 +24974,10 @@
         <v>144.9413919716242</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>221.3479975339226</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>242.8367077812007</v>
       </c>
       <c r="X32" t="n">
         <v>263.3268397422568</v>
@@ -25075,25 +25075,25 @@
         <v>73.42771924572502</v>
       </c>
       <c r="C34" t="n">
-        <v>60.84256016241555</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>42.21121208200007</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>40.02970171035689</v>
       </c>
       <c r="F34" t="n">
-        <v>39.01678708671896</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>61.58671842224648</v>
       </c>
       <c r="H34" t="n">
-        <v>55.82291157122729</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.046213991046</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.77055153440054</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>117.61233710076</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>121.5413284920692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>180.1187374003787</v>
       </c>
       <c r="X34" t="n">
-        <v>119.3053944528249</v>
+        <v>107.923620303308</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.1803924158825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25160,7 @@
         <v>248.2787806844707</v>
       </c>
       <c r="E35" t="n">
-        <v>275.5261091360495</v>
+        <v>47.28313006762733</v>
       </c>
       <c r="F35" t="n">
         <v>72.22880573707698</v>
@@ -25169,7 +25169,7 @@
         <v>80.6554975105006</v>
       </c>
       <c r="H35" t="n">
-        <v>4.827562111132693</v>
+        <v>32.0341252160886</v>
       </c>
       <c r="I35" t="n">
         <v>104.0716286341936</v>
@@ -25202,10 +25202,10 @@
         <v>43.4648570049374</v>
       </c>
       <c r="S35" t="n">
-        <v>18.27098131448585</v>
+        <v>102.6158086500331</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>116.6915886279191</v>
       </c>
       <c r="U35" t="n">
         <v>144.9413919716242</v>
@@ -25233,19 +25233,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>52.18591120499369</v>
       </c>
       <c r="D36" t="n">
-        <v>41.04080462842647</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>38.6649514571716</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>30.93925622699835</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>5.831183300284181</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>40.81933373348935</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>99.27843484109208</v>
       </c>
     </row>
     <row r="37">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.42771924572502</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>60.84256016241555</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>42.21121208200007</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>40.02970171035689</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>70.8891304409572</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.24847056177219</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>179.9147684202786</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>145.7333823876157</v>
       </c>
       <c r="W37" t="n">
-        <v>180.1187374003787</v>
+        <v>131.0896790853544</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>283.3465095975207</v>
+        <v>89.90550493196508</v>
       </c>
       <c r="C38" t="n">
         <v>72.44455503949206</v>
@@ -25397,7 +25397,7 @@
         <v>255.2957095547231</v>
       </c>
       <c r="E38" t="n">
-        <v>89.10203334074629</v>
+        <v>282.5430380063019</v>
       </c>
       <c r="F38" t="n">
         <v>307.4887136757516</v>
@@ -25406,7 +25406,7 @@
         <v>122.4744007836196</v>
       </c>
       <c r="H38" t="n">
-        <v>69.70463314038594</v>
+        <v>240.0874700498073</v>
       </c>
       <c r="I38" t="n">
         <v>111.088557504446</v>
@@ -25457,7 +25457,7 @@
         <v>270.3437686125092</v>
       </c>
       <c r="Y38" t="n">
-        <v>286.8506065900937</v>
+        <v>116.4677696806725</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.48272521425706</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73.32116692235586</v>
       </c>
       <c r="D39" t="n">
         <v>48.05773349867887</v>
       </c>
       <c r="E39" t="n">
-        <v>58.25774838944106</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>45.681880327424</v>
@@ -25485,7 +25485,7 @@
         <v>37.95618509725075</v>
       </c>
       <c r="H39" t="n">
-        <v>12.84811217053658</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0.7705020866832513</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>72.29583903787794</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>6.983867197616235</v>
       </c>
       <c r="W39" t="n">
-        <v>152.3076510949597</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>106.2953637113445</v>
       </c>
     </row>
     <row r="40">
@@ -25603,16 +25603,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>186.931697290531</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.8904606417901</v>
+        <v>85.28108667433638</v>
       </c>
       <c r="X40" t="n">
-        <v>126.3223233230773</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>119.1973212861349</v>
@@ -25634,19 +25634,19 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>292.5337372208467</v>
+        <v>281.5279599303552</v>
       </c>
       <c r="F41" t="n">
-        <v>153.1912725596789</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G41" t="n">
-        <v>161.6179643331025</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H41" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25679,19 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>238.3556256187198</v>
+        <v>74.0674852881024</v>
       </c>
       <c r="W41" t="n">
-        <v>236.218598581781</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X41" t="n">
-        <v>280.334467827054</v>
+        <v>116.0463274964365</v>
       </c>
       <c r="Y41" t="n">
         <v>296.8413058046385</v>
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>58.04843271322368</v>
+        <v>19.05777407552791</v>
       </c>
       <c r="E42" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>82.28653825242274</v>
       </c>
       <c r="T42" t="n">
-        <v>79.67868192310577</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X42" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25792,22 +25792,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>55.0269952848027</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.953416261903627</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,19 +25834,19 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.63425617445839</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V43" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
-        <v>197.1263654851759</v>
+        <v>32.8382251545585</v>
       </c>
       <c r="X43" t="n">
         <v>136.3130225376221</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>354.9734236469159</v>
       </c>
       <c r="C44" t="n">
-        <v>340.8215155820174</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>181.2596515696807</v>
       </c>
       <c r="T44" t="n">
         <v>195.3354315475667</v>
       </c>
       <c r="U44" t="n">
-        <v>223.5852348912718</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.4775206394889</v>
+        <v>361.7865624670634</v>
       </c>
     </row>
     <row r="45">
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>112.8921409742205</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>84.47502621993179</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26001,13 +26001,13 @@
         <v>198.1809640644101</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.0401691328606</v>
       </c>
       <c r="W45" t="n">
         <v>223.9345651443549</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>181.3216090144873</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.2818359444816</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>139.4864030820632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>118.6735446300045</v>
       </c>
       <c r="F46" t="n">
         <v>117.6606300063666</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>140.2305613418941</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26062,10 +26062,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>63.89045827913221</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.8242353355301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>316574.5679377834</v>
+        <v>316574.5679377835</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>395376.3215468903</v>
+        <v>395376.3215468902</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>420343.0624744482</v>
+        <v>420343.0624744481</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>420343.0624744484</v>
+        <v>420343.0624744482</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552933.7399428996</v>
+        <v>552933.7399428997</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552933.7399428996</v>
+        <v>552933.7399428997</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535624.6851975488</v>
+        <v>535624.6851975489</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491122</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="E2" t="n">
         <v>257131.9251353952</v>
       </c>
       <c r="F2" t="n">
-        <v>326183.8400196977</v>
+        <v>326183.8400196978</v>
       </c>
       <c r="G2" t="n">
-        <v>339642.2519268947</v>
+        <v>339642.2519268946</v>
       </c>
       <c r="H2" t="n">
-        <v>402666.3374736653</v>
+        <v>402666.3374736651</v>
       </c>
       <c r="I2" t="n">
-        <v>432756.8551013688</v>
+        <v>432756.855101369</v>
       </c>
       <c r="J2" t="n">
-        <v>432756.8551013688</v>
+        <v>432756.8551013691</v>
       </c>
       <c r="K2" t="n">
+        <v>599564.4815939371</v>
+      </c>
+      <c r="L2" t="n">
         <v>599564.481593937</v>
       </c>
-      <c r="L2" t="n">
-        <v>599564.4815939366</v>
-      </c>
       <c r="M2" t="n">
-        <v>580854.178378186</v>
+        <v>580854.1783781863</v>
       </c>
       <c r="N2" t="n">
-        <v>548067.9714521577</v>
+        <v>548067.9714521576</v>
       </c>
       <c r="O2" t="n">
-        <v>510433.70543427</v>
+        <v>510433.7054342698</v>
       </c>
       <c r="P2" t="n">
-        <v>224924.1735863327</v>
+        <v>224924.1735863328</v>
       </c>
     </row>
     <row r="3">
@@ -26393,7 +26393,7 @@
         <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="C4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="D4" t="n">
-        <v>393012.3122149283</v>
+        <v>393270.9175066696</v>
       </c>
       <c r="E4" t="n">
-        <v>68328.03320492033</v>
+        <v>68614.00627512048</v>
       </c>
       <c r="F4" t="n">
-        <v>103146.6934297918</v>
+        <v>103452.9905437068</v>
       </c>
       <c r="G4" t="n">
-        <v>106320.0299066209</v>
+        <v>106643.2649751682</v>
       </c>
       <c r="H4" t="n">
-        <v>121178.9577116433</v>
+        <v>121581.5160446232</v>
       </c>
       <c r="I4" t="n">
-        <v>137362.3449046811</v>
+        <v>137770.5087041559</v>
       </c>
       <c r="J4" t="n">
-        <v>137362.3449046811</v>
+        <v>137770.5087041559</v>
       </c>
       <c r="K4" t="n">
-        <v>235148.3418754698</v>
+        <v>235556.5056749446</v>
       </c>
       <c r="L4" t="n">
-        <v>235148.3418754698</v>
+        <v>235556.5056749446</v>
       </c>
       <c r="M4" t="n">
-        <v>227701.2319117007</v>
+        <v>228096.3700521514</v>
       </c>
       <c r="N4" t="n">
-        <v>214107.8145282394</v>
+        <v>214482.7325538917</v>
       </c>
       <c r="O4" t="n">
-        <v>196758.4507252316</v>
+        <v>197116.4307962517</v>
       </c>
       <c r="P4" t="n">
-        <v>51723.34538915465</v>
+        <v>52001.18832458659</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372154.5180341845</v>
+        <v>371895.9127424426</v>
       </c>
       <c r="C6" t="n">
-        <v>372154.5180341845</v>
+        <v>371895.9127424427</v>
       </c>
       <c r="D6" t="n">
-        <v>372154.5180341845</v>
+        <v>371895.912742443</v>
       </c>
       <c r="E6" t="n">
-        <v>165405.2131839906</v>
+        <v>165119.2401137904</v>
       </c>
       <c r="F6" t="n">
-        <v>188861.3362819327</v>
+        <v>188555.0391680179</v>
       </c>
       <c r="G6" t="n">
-        <v>216352.941591561</v>
+        <v>216029.7065230137</v>
       </c>
       <c r="H6" t="n">
-        <v>227371.1684080241</v>
+        <v>226968.610075044</v>
       </c>
       <c r="I6" t="n">
-        <v>262841.346248337</v>
+        <v>262433.1824488622</v>
       </c>
       <c r="J6" t="n">
-        <v>267844.4080922859</v>
+        <v>267436.2442928113</v>
       </c>
       <c r="K6" t="n">
-        <v>267612.03144552</v>
+        <v>267203.8676460453</v>
       </c>
       <c r="L6" t="n">
-        <v>339129.3377266515</v>
+        <v>338721.1739271772</v>
       </c>
       <c r="M6" t="n">
-        <v>330330.4735264787</v>
+        <v>329935.3353860285</v>
       </c>
       <c r="N6" t="n">
-        <v>313843.5502207994</v>
+        <v>313468.6321951469</v>
       </c>
       <c r="O6" t="n">
-        <v>296171.0502497512</v>
+        <v>295813.0701787309</v>
       </c>
       <c r="P6" t="n">
-        <v>171512.9947817709</v>
+        <v>171235.1518463391</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -29068,19 +29068,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>17.09570707618605</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>38.25477350268523</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>38.25477350268523</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>17.09570707618605</v>
       </c>
       <c r="R23" t="n">
         <v>38.25477350268523</v>
@@ -29299,22 +29299,22 @@
         <v>38.25477350268523</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>38.25477350268523</v>
       </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>17.09570707618605</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>38.25477350268523</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>40.53172782580149</v>
@@ -35419,13 +35419,13 @@
         <v>38.89408225708225</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="P11" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,11 +35489,11 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="L12" t="n">
         <v>38.89408225708225</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>40.53172782580149</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>72.28991628003506</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="M14" t="n">
-        <v>72.28991628003506</v>
+        <v>75.33370222866807</v>
       </c>
       <c r="N14" t="n">
-        <v>75.33370222866807</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>75.33370222866807</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>75.33370222866807</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.194402630207489</v>
+      </c>
+      <c r="N15" t="n">
         <v>75.33370222866807</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>75.33370222866807</v>
-      </c>
-      <c r="M15" t="n">
-        <v>72.28991628003503</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>75.33370222866807</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>104.4865665636063</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>10.13017972769988</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>104.4865665636063</v>
@@ -35966,16 +35966,16 @@
         <v>104.4865665636063</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>104.4865665636063</v>
+      </c>
+      <c r="O18" t="n">
         <v>100.2648871064909</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>104.4865665636063</v>
       </c>
       <c r="P18" t="n">
         <v>104.4865665636063</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36364,19 +36364,19 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655598</v>
+        <v>236.2630073417458</v>
       </c>
       <c r="N23" t="n">
-        <v>246.1886343180785</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>188.9567433437439</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>128.8204859188983</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.105007861641241</v>
+        <v>28.26407428814042</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.81998927248957</v>
+        <v>57.32862133442804</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,10 +36446,10 @@
         <v>268.7747068942237</v>
       </c>
       <c r="N24" t="n">
-        <v>268.7747068942237</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36595,22 +36595,22 @@
         <v>26.30548414807271</v>
       </c>
       <c r="K26" t="n">
-        <v>142.3103350288694</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>198.9905066566492</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>246.1886343180785</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>107.6614194923991</v>
       </c>
       <c r="Q26" t="n">
         <v>28.26407428814042</v>
@@ -36683,16 +36683,16 @@
         <v>268.7747068942237</v>
       </c>
       <c r="N27" t="n">
-        <v>268.7747068942237</v>
+        <v>0.8003369460362187</v>
       </c>
       <c r="O27" t="n">
-        <v>97.684552459877</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>57.32862133442804</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>20.83987996378936</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>268.7747068942237</v>
       </c>
       <c r="N30" t="n">
         <v>268.7747068942237</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>148.7999568010044</v>
       </c>
       <c r="M33" t="n">
         <v>268.7747068942237</v>
@@ -37163,7 +37163,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>43.13778931563908</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>53.4863348067817</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>39.99648569681069</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>228.2429790684222</v>
       </c>
       <c r="M36" t="n">
         <v>228.2429790684222</v>
       </c>
       <c r="N36" t="n">
+        <v>219.0210405202031</v>
+      </c>
+      <c r="O36" t="n">
         <v>228.2429790684222</v>
       </c>
-      <c r="O36" t="n">
-        <v>66.05634667497107</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>149.3447339906266</v>
+        <v>193.4410046655556</v>
       </c>
       <c r="N38" t="n">
-        <v>193.4410046655556</v>
+        <v>45.28917246444247</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>124.4823362873714</v>
+        <v>67.95405189897951</v>
       </c>
       <c r="N39" t="n">
         <v>193.4410046655556</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M41" t="n">
         <v>164.2881403306174</v>
       </c>
       <c r="N41" t="n">
-        <v>140.9032725485734</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>53.5946741446103</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>27.76041801656467</v>
       </c>
       <c r="M44" t="n">
-        <v>26.63878496539034</v>
+        <v>27.76041801656467</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>27.76041801656467</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>26.63878496539035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>27.76041801656467</v>
+        <v>26.63878496539033</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>27.76041801656467</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.63878496539035</v>
+        <v>27.76041801656467</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
